--- a/error_counts/biodivner/Meta-Llama-3.1-405B-Instruct/random_4_parsed_output/tokens_potential.xlsx
+++ b/error_counts/biodivner/Meta-Llama-3.1-405B-Instruct/random_4_parsed_output/tokens_potential.xlsx
@@ -3732,7 +3732,7 @@
         </is>
       </c>
       <c r="C220" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="221">
